--- a/EasyAsPi/results.xlsx
+++ b/EasyAsPi/results.xlsx
@@ -19,39 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>N = 100</t>
-  </si>
-  <si>
-    <t>0.3x</t>
-  </si>
-  <si>
-    <t>0.0x</t>
-  </si>
-  <si>
-    <t>0.1x</t>
-  </si>
-  <si>
-    <t>0.2x</t>
-  </si>
-  <si>
-    <t>0.4x</t>
-  </si>
-  <si>
-    <t>0.5x</t>
-  </si>
-  <si>
-    <t>0.6x</t>
-  </si>
-  <si>
-    <t>0.7x</t>
-  </si>
-  <si>
-    <t>0.8x</t>
-  </si>
-  <si>
-    <t>0.9x</t>
   </si>
   <si>
     <t>N = 1000</t>
@@ -67,6 +37,15 @@
   </si>
   <si>
     <t>N = 1000000</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
 </sst>
 </file>
@@ -135,12 +114,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,7 +164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -180,8 +174,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,28 +205,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -271,78 +317,79 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$5:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0x</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1x</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2x</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3x</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4x</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5x</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6x</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7x</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8x</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>Sheet1!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.0</c:v>
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,20 +404,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064128552"/>
-        <c:axId val="-2081296376"/>
+        <c:axId val="-2063411640"/>
+        <c:axId val="-2062697288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064128552"/>
+        <c:axId val="-2063411640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081296376"/>
+        <c:crossAx val="-2062697288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -378,7 +426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081296376"/>
+        <c:axId val="-2062697288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064128552"/>
+        <c:crossAx val="-2063411640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -397,6 +445,151 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU (N =  1000000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$67:$M$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.089346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.088081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.094629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.085672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.098007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.094385</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.102489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2063308088"/>
+        <c:axId val="-2063305144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063308088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063305144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063305144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063308088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -456,78 +649,79 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$20:$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.0x</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1x</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2x</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3x</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4x</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5x</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6x</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7x</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8x</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$29</c:f>
+              <c:f>Sheet1!$B$22:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>203.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>207.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>211.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.0</c:v>
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,20 +736,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2085501960"/>
-        <c:axId val="-2084609368"/>
+        <c:axId val="-2063516104"/>
+        <c:axId val="-2063513160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2085501960"/>
+        <c:axId val="-2063516104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084609368"/>
+        <c:crossAx val="-2063513160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084609368"/>
+        <c:axId val="-2063513160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +769,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085501960"/>
+        <c:crossAx val="-2063516104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -582,6 +777,1042 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU (N =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 10000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2062899144"/>
+        <c:axId val="-2062927416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2062899144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062927416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062927416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062899144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU (N = 100000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$54:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.101255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.099845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.099425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.099765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.101535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.100045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2063422136"/>
+        <c:axId val="-2063423000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063422136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063423000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063423000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063422136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (N = 1000000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$67:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.100023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.100134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.099939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.099819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.099997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.099983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.099867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.100019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.100042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2063418040"/>
+        <c:axId val="-2062691496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063418040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062691496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062691496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063418040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU (N = 100)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2062915400"/>
+        <c:axId val="-2063258712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2062915400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063258712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063258712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062915400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (N = 1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$22:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2063035112"/>
+        <c:axId val="-2062856328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063035112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062856328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062856328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063035112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU (N = 10000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$41:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2062838168"/>
+        <c:axId val="-2062835224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2062838168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062835224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062835224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062838168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU (N = 100000)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$54:$M$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.096585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.098375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.097125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.097825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2063336616"/>
+        <c:axId val="-2063333672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2063336616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063333672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063333672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063336616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -606,10 +1837,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>622300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -632,14 +1863,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>749300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -653,6 +1884,246 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>749300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1079500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1663700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1752600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2476500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -983,482 +2454,879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C72"/>
+  <dimension ref="A2:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23">
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="2:3" ht="23">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="2:3">
+    <row r="2" spans="2:13" ht="23">
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="L2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="2:13" ht="23">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.105</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="8">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="8">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>7</v>
+      </c>
+      <c r="M13" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="8">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.105</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9</v>
+      </c>
+      <c r="M15" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" ht="94" customHeight="1"/>
+    <row r="20" spans="2:13">
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="L20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.1065</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9.35E-2</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L25" s="10">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="10">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <v>4</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="10">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="C27" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <v>5</v>
+      </c>
+      <c r="M27" s="9">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="10">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="C28" s="9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L28" s="10">
+        <v>6</v>
+      </c>
+      <c r="M28" s="9">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="10">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="C29" s="9">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="L29" s="10">
+        <v>7</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="10">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="C30" s="9">
+        <v>0.1095</v>
+      </c>
+      <c r="L30" s="10">
+        <v>8</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="10">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="C31" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="L31" s="10">
+        <v>9</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" ht="86" customHeight="1"/>
+    <row r="39" spans="2:13">
+      <c r="B39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="10">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.1017</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.10009999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="10">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="C43" s="9">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="L43" s="10">
+        <v>2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.10005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="10">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="C44" s="9">
+        <v>0.10105</v>
+      </c>
+      <c r="L44" s="10">
+        <v>3</v>
+      </c>
+      <c r="M44" s="9">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="10">
         <v>4</v>
       </c>
-      <c r="C22">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="C45" s="9">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="L45" s="10">
+        <v>4</v>
+      </c>
+      <c r="M45" s="9">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="10">
+        <v>5</v>
+      </c>
+      <c r="C46" s="9">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="L46" s="10">
+        <v>5</v>
+      </c>
+      <c r="M46" s="9">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="10">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="L47" s="10">
+        <v>6</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="10">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.1017</v>
+      </c>
+      <c r="L48" s="10">
+        <v>7</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0.1002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="10">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.10015</v>
+      </c>
+      <c r="L49" s="10">
+        <v>8</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0.10025000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="10">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="L50" s="10">
+        <v>9</v>
+      </c>
+      <c r="M50" s="9">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="193" customHeight="1"/>
+    <row r="52" spans="2:13">
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="10">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.101255</v>
+      </c>
+      <c r="L54" s="10">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0.12171999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="2" t="s">
+      <c r="C55" s="9">
+        <v>0.10072</v>
+      </c>
+      <c r="L55" s="10">
+        <v>1</v>
+      </c>
+      <c r="M55" s="9">
+        <v>9.6570000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="10">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>9.844E-2</v>
+      </c>
+      <c r="L56" s="10">
+        <v>2</v>
+      </c>
+      <c r="M56" s="9">
+        <v>9.6585000000000004E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="10">
+        <v>3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9.9845000000000003E-2</v>
+      </c>
+      <c r="L57" s="10">
+        <v>3</v>
+      </c>
+      <c r="M57" s="9">
+        <v>9.8375000000000004E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="10">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>9.9424999999999999E-2</v>
+      </c>
+      <c r="L58" s="10">
+        <v>4</v>
+      </c>
+      <c r="M58" s="9">
+        <v>9.8640000000000005E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="10">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
+      <c r="C59" s="9">
+        <v>9.9790000000000004E-2</v>
+      </c>
+      <c r="L59" s="10">
+        <v>5</v>
+      </c>
+      <c r="M59" s="9">
+        <v>9.6979999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="10">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="2" t="s">
+      <c r="C60" s="9">
+        <v>9.9765000000000006E-2</v>
+      </c>
+      <c r="L60" s="10">
+        <v>6</v>
+      </c>
+      <c r="M60" s="9">
+        <v>9.7125000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="10">
         <v>7</v>
       </c>
-      <c r="C26">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
+      <c r="C61" s="9">
+        <v>0.101535</v>
+      </c>
+      <c r="L61" s="10">
+        <v>7</v>
+      </c>
+      <c r="M61" s="9">
+        <v>9.7500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="10">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="2" t="s">
+      <c r="C62" s="9">
+        <v>9.9180000000000004E-2</v>
+      </c>
+      <c r="L62" s="10">
+        <v>8</v>
+      </c>
+      <c r="M62" s="9">
+        <v>9.8680000000000004E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="10">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="2" t="s">
+      <c r="C63" s="9">
+        <v>0.100045</v>
+      </c>
+      <c r="L63" s="10">
+        <v>9</v>
+      </c>
+      <c r="M63" s="9">
+        <v>9.7824999999999995E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="197" customHeight="1"/>
+    <row r="65" spans="1:13">
+      <c r="B65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3"/>
+      <c r="B66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" s="10">
+        <v>0</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.100023</v>
+      </c>
+      <c r="L67" s="10">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0.15057000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0.100134</v>
+      </c>
+      <c r="L68" s="10">
+        <v>1</v>
+      </c>
+      <c r="M68" s="9">
+        <v>8.9345999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="10">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="2" t="s">
+      <c r="C69" s="9">
+        <v>9.9939E-2</v>
+      </c>
+      <c r="L69" s="10">
+        <v>2</v>
+      </c>
+      <c r="M69" s="9">
+        <v>8.8081000000000007E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="10">
         <v>3</v>
       </c>
-      <c r="C39">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="2" t="s">
+      <c r="C70" s="9">
+        <v>9.9819000000000005E-2</v>
+      </c>
+      <c r="L70" s="10">
+        <v>3</v>
+      </c>
+      <c r="M70" s="9">
+        <v>9.4629000000000005E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" s="10">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="2" t="s">
+      <c r="C71" s="9">
+        <v>0.100178</v>
+      </c>
+      <c r="L71" s="10">
+        <v>4</v>
+      </c>
+      <c r="M71" s="9">
+        <v>9.8750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72" s="10">
         <v>5</v>
       </c>
-      <c r="C42">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="2" t="s">
+      <c r="C72" s="9">
+        <v>9.9997000000000003E-2</v>
+      </c>
+      <c r="L72" s="10">
+        <v>5</v>
+      </c>
+      <c r="M72" s="9">
+        <v>8.5671999999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="B73" s="10">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="2" t="s">
+      <c r="C73" s="9">
+        <v>9.9983000000000002E-2</v>
+      </c>
+      <c r="L73" s="10">
+        <v>6</v>
+      </c>
+      <c r="M73" s="9">
+        <v>9.8006999999999997E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="10">
         <v>7</v>
       </c>
-      <c r="C44">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
+      <c r="C74" s="9">
+        <v>9.9866999999999997E-2</v>
+      </c>
+      <c r="L74" s="10">
+        <v>7</v>
+      </c>
+      <c r="M74" s="9">
+        <v>9.4384999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" s="10">
         <v>8</v>
       </c>
-      <c r="C45">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="2" t="s">
+      <c r="C75" s="9">
+        <v>0.100019</v>
+      </c>
+      <c r="L75" s="10">
+        <v>8</v>
+      </c>
+      <c r="M75" s="9">
+        <v>0.102489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="10">
         <v>9</v>
       </c>
-      <c r="C46">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>19958</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>20051</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>19932</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>20078</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>19976</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>20019</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>19938</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>20119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
+      <c r="C76" s="9">
+        <v>0.10004200000000001</v>
+      </c>
+      <c r="L76" s="10">
         <v>9</v>
       </c>
-      <c r="C59">
-        <v>19941</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>19988</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>199759</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <v>199856</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>199807</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>199457</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>199901</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68">
-        <v>199975</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69">
-        <v>200019</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>200719</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>200284</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>200223</v>
+      <c r="M76" s="9">
+        <v>9.8070000000000004E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
